--- a/AVD1/7 - Ondřej Švorc - Firma Radílek.xlsx
+++ b/AVD1/7 - Ondřej Švorc - Firma Radílek.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJEP\AVD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D1396-25BE-47DB-AF8F-48C0976CA74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E0E9D-64B7-4BD5-993D-FB3E0EEBCB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3095BA0B-7F52-4A9A-9669-92A26B1E4A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3095BA0B-7F52-4A9A-9669-92A26B1E4A80}"/>
   </bookViews>
   <sheets>
     <sheet name="zadání" sheetId="1" r:id="rId1"/>
     <sheet name="rozdělení obchodníků" sheetId="6" r:id="rId2"/>
-    <sheet name="prodeje" sheetId="5" r:id="rId3"/>
+    <sheet name="List3" sheetId="9" r:id="rId3"/>
+    <sheet name="prodeje" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prodeje!$B$2:$F$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodeje!$B$2:$F$360</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'rozdělení obchodníků'!$B$2:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="150">
   <si>
     <t>Datum</t>
   </si>
@@ -327,6 +331,171 @@
   </si>
   <si>
     <t>plán</t>
+  </si>
+  <si>
+    <t>11 nováčků</t>
+  </si>
+  <si>
+    <t>20 zkušených</t>
+  </si>
+  <si>
+    <t>22 karet plán pro nováčky celkem</t>
+  </si>
+  <si>
+    <t>80 karet plán pro zkušené celkem</t>
+  </si>
+  <si>
+    <t>celkem 102 kreditních karet</t>
+  </si>
+  <si>
+    <t>Jižní čechy</t>
+  </si>
+  <si>
+    <t>1 nováček 3 zkušení</t>
+  </si>
+  <si>
+    <t>plán karet</t>
+  </si>
+  <si>
+    <t>2 nováčci 3 zkušení</t>
+  </si>
+  <si>
+    <t>realita</t>
+  </si>
+  <si>
+    <t>5 nováčků 4 zkušení</t>
+  </si>
+  <si>
+    <t>Východní</t>
+  </si>
+  <si>
+    <t>2 nováčci 6 zkušených</t>
+  </si>
+  <si>
+    <t>Západní</t>
+  </si>
+  <si>
+    <t>1 nováček 4 zkušení</t>
+  </si>
+  <si>
+    <t>počet karet</t>
+  </si>
+  <si>
+    <t>Popisky řádků</t>
+  </si>
+  <si>
+    <t>Celkový součet</t>
+  </si>
+  <si>
+    <t>Součet z počet karet</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>04.X</t>
+  </si>
+  <si>
+    <t>08.X</t>
+  </si>
+  <si>
+    <t>25.X</t>
+  </si>
+  <si>
+    <t>01.X</t>
+  </si>
+  <si>
+    <t>06.X</t>
+  </si>
+  <si>
+    <t>09.X</t>
+  </si>
+  <si>
+    <t>05.X</t>
+  </si>
+  <si>
+    <t>02.X</t>
+  </si>
+  <si>
+    <t>15.X</t>
+  </si>
+  <si>
+    <t>20.X</t>
+  </si>
+  <si>
+    <t>26.X</t>
+  </si>
+  <si>
+    <t>27.X</t>
+  </si>
+  <si>
+    <t>18.X</t>
+  </si>
+  <si>
+    <t>23.X</t>
+  </si>
+  <si>
+    <t>28.X</t>
+  </si>
+  <si>
+    <t>07.X</t>
+  </si>
+  <si>
+    <t>10.X</t>
+  </si>
+  <si>
+    <t>24.X</t>
+  </si>
+  <si>
+    <t>14.X</t>
+  </si>
+  <si>
+    <t>03.X</t>
+  </si>
+  <si>
+    <t>12.X</t>
+  </si>
+  <si>
+    <t>13.X</t>
+  </si>
+  <si>
+    <t>19.X</t>
+  </si>
+  <si>
+    <t>21.X</t>
+  </si>
+  <si>
+    <t>22.X</t>
+  </si>
+  <si>
+    <t>30.X</t>
+  </si>
+  <si>
+    <t>16.X</t>
+  </si>
+  <si>
+    <t>17.X</t>
+  </si>
+  <si>
+    <t>Měsíce (Datum)</t>
+  </si>
+  <si>
+    <t>Celkem se prodalo 86 karet. Plán byl 102 karet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severní čechy: </t>
+  </si>
+  <si>
+    <t>jižní čechy:</t>
+  </si>
+  <si>
+    <t>východní čechy:</t>
+  </si>
+  <si>
+    <t>západní čechy:</t>
+  </si>
+  <si>
+    <t>praha:</t>
   </si>
 </sst>
 </file>
@@ -359,15 +528,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,20 +550,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -410,16 +625,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -709,9 +918,4231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ondřej Švorc" refreshedDate="45980.949167824074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="358" xr:uid="{53221A4E-F2AB-46D3-BA7F-5A20B155515A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabulka2"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Datum" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-09-25T00:00:00" maxDate="2025-11-04T00:00:00" count="34">
+        <d v="2025-09-30T00:00:00"/>
+        <d v="2025-10-01T00:00:00"/>
+        <d v="2025-10-02T00:00:00"/>
+        <d v="2025-11-02T00:00:00"/>
+        <d v="2025-11-03T00:00:00"/>
+        <d v="2025-10-03T00:00:00"/>
+        <d v="2025-10-04T00:00:00"/>
+        <d v="2025-10-05T00:00:00"/>
+        <d v="2025-10-06T00:00:00"/>
+        <d v="2025-10-07T00:00:00"/>
+        <d v="2025-10-08T00:00:00"/>
+        <d v="2025-10-09T00:00:00"/>
+        <d v="2025-10-10T00:00:00"/>
+        <d v="2025-10-12T00:00:00"/>
+        <d v="2025-10-13T00:00:00"/>
+        <d v="2025-10-14T00:00:00"/>
+        <d v="2025-10-15T00:00:00"/>
+        <d v="2025-10-16T00:00:00"/>
+        <d v="2025-10-17T00:00:00"/>
+        <d v="2025-10-18T00:00:00"/>
+        <d v="2025-10-19T00:00:00"/>
+        <d v="2025-10-20T00:00:00"/>
+        <d v="2025-10-21T00:00:00"/>
+        <d v="2025-10-22T00:00:00"/>
+        <d v="2025-10-23T00:00:00"/>
+        <d v="2025-10-24T00:00:00"/>
+        <d v="2025-10-25T00:00:00"/>
+        <d v="2025-10-26T00:00:00"/>
+        <d v="2025-10-27T00:00:00"/>
+        <d v="2025-10-28T00:00:00"/>
+        <d v="2025-10-30T00:00:00"/>
+        <d v="2025-09-25T00:00:00"/>
+        <d v="2025-09-28T00:00:00"/>
+        <d v="2025-09-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7"/>
+    </cacheField>
+    <cacheField name="ID prodeje" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20220012561" maxValue="20220012925"/>
+    </cacheField>
+    <cacheField name="Skupina produktů" numFmtId="0">
+      <sharedItems count="3">
+        <s v="karta"/>
+        <s v="účet"/>
+        <s v="úvěr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ID prodejce" numFmtId="0">
+      <sharedItems count="22">
+        <s v="P000"/>
+        <s v="P031"/>
+        <s v="P127"/>
+        <s v="P072"/>
+        <s v="P088"/>
+        <s v="P111"/>
+        <s v="P037"/>
+        <s v="P089"/>
+        <s v="P058"/>
+        <s v="P040"/>
+        <s v="P043"/>
+        <s v="P008"/>
+        <s v="P081"/>
+        <s v="P112"/>
+        <s v="P083"/>
+        <s v="P035"/>
+        <s v="P073"/>
+        <s v="P222"/>
+        <s v="P220"/>
+        <s v="P136"/>
+        <s v="P020"/>
+        <s v="P113"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Pro jakou banku prodáno" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="počet karet" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Dny (Datum)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="days" startDate="2025-09-25T00:00:00" endDate="2025-11-04T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;25.09.2025"/>
+          <s v="01.I"/>
+          <s v="02.I"/>
+          <s v="03.I"/>
+          <s v="04.I"/>
+          <s v="05.I"/>
+          <s v="06.I"/>
+          <s v="07.I"/>
+          <s v="08.I"/>
+          <s v="09.I"/>
+          <s v="10.I"/>
+          <s v="11.I"/>
+          <s v="12.I"/>
+          <s v="13.I"/>
+          <s v="14.I"/>
+          <s v="15.I"/>
+          <s v="16.I"/>
+          <s v="17.I"/>
+          <s v="18.I"/>
+          <s v="19.I"/>
+          <s v="20.I"/>
+          <s v="21.I"/>
+          <s v="22.I"/>
+          <s v="23.I"/>
+          <s v="24.I"/>
+          <s v="25.I"/>
+          <s v="26.I"/>
+          <s v="27.I"/>
+          <s v="28.I"/>
+          <s v="29.I"/>
+          <s v="30.I"/>
+          <s v="31.I"/>
+          <s v="01.II"/>
+          <s v="02.II"/>
+          <s v="03.II"/>
+          <s v="04.II"/>
+          <s v="05.II"/>
+          <s v="06.II"/>
+          <s v="07.II"/>
+          <s v="08.II"/>
+          <s v="09.II"/>
+          <s v="10.II"/>
+          <s v="11.II"/>
+          <s v="12.II"/>
+          <s v="13.II"/>
+          <s v="14.II"/>
+          <s v="15.II"/>
+          <s v="16.II"/>
+          <s v="17.II"/>
+          <s v="18.II"/>
+          <s v="19.II"/>
+          <s v="20.II"/>
+          <s v="21.II"/>
+          <s v="22.II"/>
+          <s v="23.II"/>
+          <s v="24.II"/>
+          <s v="25.II"/>
+          <s v="26.II"/>
+          <s v="27.II"/>
+          <s v="28.II"/>
+          <s v="29.II"/>
+          <s v="01.III"/>
+          <s v="02.III"/>
+          <s v="03.III"/>
+          <s v="04.III"/>
+          <s v="05.III"/>
+          <s v="06.III"/>
+          <s v="07.III"/>
+          <s v="08.III"/>
+          <s v="09.III"/>
+          <s v="10.III"/>
+          <s v="11.III"/>
+          <s v="12.III"/>
+          <s v="13.III"/>
+          <s v="14.III"/>
+          <s v="15.III"/>
+          <s v="16.III"/>
+          <s v="17.III"/>
+          <s v="18.III"/>
+          <s v="19.III"/>
+          <s v="20.III"/>
+          <s v="21.III"/>
+          <s v="22.III"/>
+          <s v="23.III"/>
+          <s v="24.III"/>
+          <s v="25.III"/>
+          <s v="26.III"/>
+          <s v="27.III"/>
+          <s v="28.III"/>
+          <s v="29.III"/>
+          <s v="30.III"/>
+          <s v="31.III"/>
+          <s v="01.IV"/>
+          <s v="02.IV"/>
+          <s v="03.IV"/>
+          <s v="04.IV"/>
+          <s v="05.IV"/>
+          <s v="06.IV"/>
+          <s v="07.IV"/>
+          <s v="08.IV"/>
+          <s v="09.IV"/>
+          <s v="10.IV"/>
+          <s v="11.IV"/>
+          <s v="12.IV"/>
+          <s v="13.IV"/>
+          <s v="14.IV"/>
+          <s v="15.IV"/>
+          <s v="16.IV"/>
+          <s v="17.IV"/>
+          <s v="18.IV"/>
+          <s v="19.IV"/>
+          <s v="20.IV"/>
+          <s v="21.IV"/>
+          <s v="22.IV"/>
+          <s v="23.IV"/>
+          <s v="24.IV"/>
+          <s v="25.IV"/>
+          <s v="26.IV"/>
+          <s v="27.IV"/>
+          <s v="28.IV"/>
+          <s v="29.IV"/>
+          <s v="30.IV"/>
+          <s v="01.V"/>
+          <s v="02.V"/>
+          <s v="03.V"/>
+          <s v="04.V"/>
+          <s v="05.V"/>
+          <s v="06.V"/>
+          <s v="07.V"/>
+          <s v="08.V"/>
+          <s v="09.V"/>
+          <s v="10.V"/>
+          <s v="11.V"/>
+          <s v="12.V"/>
+          <s v="13.V"/>
+          <s v="14.V"/>
+          <s v="15.V"/>
+          <s v="16.V"/>
+          <s v="17.V"/>
+          <s v="18.V"/>
+          <s v="19.V"/>
+          <s v="20.V"/>
+          <s v="21.V"/>
+          <s v="22.V"/>
+          <s v="23.V"/>
+          <s v="24.V"/>
+          <s v="25.V"/>
+          <s v="26.V"/>
+          <s v="27.V"/>
+          <s v="28.V"/>
+          <s v="29.V"/>
+          <s v="30.V"/>
+          <s v="31.V"/>
+          <s v="01.VI"/>
+          <s v="02.VI"/>
+          <s v="03.VI"/>
+          <s v="04.VI"/>
+          <s v="05.VI"/>
+          <s v="06.VI"/>
+          <s v="07.VI"/>
+          <s v="08.VI"/>
+          <s v="09.VI"/>
+          <s v="10.VI"/>
+          <s v="11.VI"/>
+          <s v="12.VI"/>
+          <s v="13.VI"/>
+          <s v="14.VI"/>
+          <s v="15.VI"/>
+          <s v="16.VI"/>
+          <s v="17.VI"/>
+          <s v="18.VI"/>
+          <s v="19.VI"/>
+          <s v="20.VI"/>
+          <s v="21.VI"/>
+          <s v="22.VI"/>
+          <s v="23.VI"/>
+          <s v="24.VI"/>
+          <s v="25.VI"/>
+          <s v="26.VI"/>
+          <s v="27.VI"/>
+          <s v="28.VI"/>
+          <s v="29.VI"/>
+          <s v="30.VI"/>
+          <s v="01.VII"/>
+          <s v="02.VII"/>
+          <s v="03.VII"/>
+          <s v="04.VII"/>
+          <s v="05.VII"/>
+          <s v="06.VII"/>
+          <s v="07.VII"/>
+          <s v="08.VII"/>
+          <s v="09.VII"/>
+          <s v="10.VII"/>
+          <s v="11.VII"/>
+          <s v="12.VII"/>
+          <s v="13.VII"/>
+          <s v="14.VII"/>
+          <s v="15.VII"/>
+          <s v="16.VII"/>
+          <s v="17.VII"/>
+          <s v="18.VII"/>
+          <s v="19.VII"/>
+          <s v="20.VII"/>
+          <s v="21.VII"/>
+          <s v="22.VII"/>
+          <s v="23.VII"/>
+          <s v="24.VII"/>
+          <s v="25.VII"/>
+          <s v="26.VII"/>
+          <s v="27.VII"/>
+          <s v="28.VII"/>
+          <s v="29.VII"/>
+          <s v="30.VII"/>
+          <s v="31.VII"/>
+          <s v="01.VIII"/>
+          <s v="02.VIII"/>
+          <s v="03.VIII"/>
+          <s v="04.VIII"/>
+          <s v="05.VIII"/>
+          <s v="06.VIII"/>
+          <s v="07.VIII"/>
+          <s v="08.VIII"/>
+          <s v="09.VIII"/>
+          <s v="10.VIII"/>
+          <s v="11.VIII"/>
+          <s v="12.VIII"/>
+          <s v="13.VIII"/>
+          <s v="14.VIII"/>
+          <s v="15.VIII"/>
+          <s v="16.VIII"/>
+          <s v="17.VIII"/>
+          <s v="18.VIII"/>
+          <s v="19.VIII"/>
+          <s v="20.VIII"/>
+          <s v="21.VIII"/>
+          <s v="22.VIII"/>
+          <s v="23.VIII"/>
+          <s v="24.VIII"/>
+          <s v="25.VIII"/>
+          <s v="26.VIII"/>
+          <s v="27.VIII"/>
+          <s v="28.VIII"/>
+          <s v="29.VIII"/>
+          <s v="30.VIII"/>
+          <s v="31.VIII"/>
+          <s v="01.IX"/>
+          <s v="02.IX"/>
+          <s v="03.IX"/>
+          <s v="04.IX"/>
+          <s v="05.IX"/>
+          <s v="06.IX"/>
+          <s v="07.IX"/>
+          <s v="08.IX"/>
+          <s v="09.IX"/>
+          <s v="10.IX"/>
+          <s v="11.IX"/>
+          <s v="12.IX"/>
+          <s v="13.IX"/>
+          <s v="14.IX"/>
+          <s v="15.IX"/>
+          <s v="16.IX"/>
+          <s v="17.IX"/>
+          <s v="18.IX"/>
+          <s v="19.IX"/>
+          <s v="20.IX"/>
+          <s v="21.IX"/>
+          <s v="22.IX"/>
+          <s v="23.IX"/>
+          <s v="24.IX"/>
+          <s v="25.IX"/>
+          <s v="26.IX"/>
+          <s v="27.IX"/>
+          <s v="28.IX"/>
+          <s v="29.IX"/>
+          <s v="30.IX"/>
+          <s v="01.X"/>
+          <s v="02.X"/>
+          <s v="03.X"/>
+          <s v="04.X"/>
+          <s v="05.X"/>
+          <s v="06.X"/>
+          <s v="07.X"/>
+          <s v="08.X"/>
+          <s v="09.X"/>
+          <s v="10.X"/>
+          <s v="11.X"/>
+          <s v="12.X"/>
+          <s v="13.X"/>
+          <s v="14.X"/>
+          <s v="15.X"/>
+          <s v="16.X"/>
+          <s v="17.X"/>
+          <s v="18.X"/>
+          <s v="19.X"/>
+          <s v="20.X"/>
+          <s v="21.X"/>
+          <s v="22.X"/>
+          <s v="23.X"/>
+          <s v="24.X"/>
+          <s v="25.X"/>
+          <s v="26.X"/>
+          <s v="27.X"/>
+          <s v="28.X"/>
+          <s v="29.X"/>
+          <s v="30.X"/>
+          <s v="31.X"/>
+          <s v="01.XI"/>
+          <s v="02.XI"/>
+          <s v="03.XI"/>
+          <s v="04.XI"/>
+          <s v="05.XI"/>
+          <s v="06.XI"/>
+          <s v="07.XI"/>
+          <s v="08.XI"/>
+          <s v="09.XI"/>
+          <s v="10.XI"/>
+          <s v="11.XI"/>
+          <s v="12.XI"/>
+          <s v="13.XI"/>
+          <s v="14.XI"/>
+          <s v="15.XI"/>
+          <s v="16.XI"/>
+          <s v="17.XI"/>
+          <s v="18.XI"/>
+          <s v="19.XI"/>
+          <s v="20.XI"/>
+          <s v="21.XI"/>
+          <s v="22.XI"/>
+          <s v="23.XI"/>
+          <s v="24.XI"/>
+          <s v="25.XI"/>
+          <s v="26.XI"/>
+          <s v="27.XI"/>
+          <s v="28.XI"/>
+          <s v="29.XI"/>
+          <s v="30.XI"/>
+          <s v="01.XII"/>
+          <s v="02.XII"/>
+          <s v="03.XII"/>
+          <s v="04.XII"/>
+          <s v="05.XII"/>
+          <s v="06.XII"/>
+          <s v="07.XII"/>
+          <s v="08.XII"/>
+          <s v="09.XII"/>
+          <s v="10.XII"/>
+          <s v="11.XII"/>
+          <s v="12.XII"/>
+          <s v="13.XII"/>
+          <s v="14.XII"/>
+          <s v="15.XII"/>
+          <s v="16.XII"/>
+          <s v="17.XII"/>
+          <s v="18.XII"/>
+          <s v="19.XII"/>
+          <s v="20.XII"/>
+          <s v="21.XII"/>
+          <s v="22.XII"/>
+          <s v="23.XII"/>
+          <s v="24.XII"/>
+          <s v="25.XII"/>
+          <s v="26.XII"/>
+          <s v="27.XII"/>
+          <s v="28.XII"/>
+          <s v="29.XII"/>
+          <s v="30.XII"/>
+          <s v="31.XII"/>
+          <s v="&gt;04.11.2025"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Měsíce (Datum)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2025-09-25T00:00:00" endDate="2025-11-04T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;25.09.2025"/>
+          <s v="I"/>
+          <s v="II"/>
+          <s v="III"/>
+          <s v="IV"/>
+          <s v="V"/>
+          <s v="VI"/>
+          <s v="VII"/>
+          <s v="VIII"/>
+          <s v="IX"/>
+          <s v="X"/>
+          <s v="XI"/>
+          <s v="XII"/>
+          <s v="&gt;04.11.2025"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="358">
+  <r>
+    <x v="0"/>
+    <n v="20220012561"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20220012563"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20220012565"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20220012566"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="20220012572"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="20220012573"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012574"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20220012575"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012576"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012577"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012578"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012579"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012580"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012581"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012582"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012583"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012584"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20220012585"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012586"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20220012587"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012588"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012589"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20220012590"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012591"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012592"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012593"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20220012594"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="20220012595"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20220012596"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20220012597"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20220012598"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20220012599"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012600"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012601"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012602"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012603"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012604"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012605"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012606"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012607"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012608"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012609"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012610"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012611"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012612"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012613"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012614"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012615"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012616"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012617"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012618"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012619"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012620"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012621"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012622"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012623"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012624"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012625"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012626"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012627"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012628"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012629"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012630"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012631"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012632"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012633"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012634"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20220012635"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="20220012636"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012637"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012638"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012639"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012640"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012641"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012642"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012643"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012644"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012645"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012646"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012647"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012648"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012649"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012650"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012651"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012652"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012653"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012654"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012655"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012656"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012657"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012658"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012659"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012660"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012661"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012662"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012663"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012664"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20220012665"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012666"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012667"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012668"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012669"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012670"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012671"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012672"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012673"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012674"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012675"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012676"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012677"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012678"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012679"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012680"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20220012681"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012682"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012683"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012684"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012685"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012686"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012687"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012688"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012689"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012690"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012691"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012692"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012693"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012694"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012695"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012696"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012697"/>
+    <x v="2"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012698"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012699"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012700"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012701"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012702"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012703"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012704"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012705"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012706"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012707"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012708"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012709"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012710"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012711"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012712"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012713"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012714"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012715"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012716"/>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012717"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012718"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012719"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012720"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012721"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012722"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012723"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012724"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012725"/>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012726"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012727"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012728"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012729"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012730"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012731"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012732"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012733"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012734"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012735"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012736"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012737"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012738"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012739"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012740"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012741"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012742"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012743"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012744"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012745"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012746"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012747"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012748"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012749"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012750"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20220012751"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="20220012752"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="20220012753"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="20220012754"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="20220012755"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="20220012756"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012757"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012758"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012759"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012760"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012761"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012762"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012763"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012764"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012765"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="20220012766"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012767"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012768"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012769"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012770"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012771"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012772"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012773"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012774"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012775"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="20220012776"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="20220012777"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="20220012778"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012779"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012780"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012781"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012782"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012783"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012784"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012785"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012786"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012787"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="20220012788"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="20220012789"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="20220012790"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="20220012791"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="20220012792"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="20220012793"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="20220012794"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="20220012795"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="20220012796"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012797"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012798"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012799"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012800"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012801"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012802"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012803"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012804"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012805"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012806"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012807"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012808"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012809"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20220012810"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012811"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012812"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012813"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012814"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012815"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012816"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012817"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012818"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="20220012819"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012820"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012821"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012822"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012823"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012824"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012825"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012826"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="20220012827"/>
+    <x v="2"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012828"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012829"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012830"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012831"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012832"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012833"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012834"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="20220012835"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012836"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012837"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012838"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012839"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012840"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012841"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012842"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012843"/>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012844"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012845"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012846"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012847"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012848"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012849"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="20220012850"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="20220012851"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="20220012852"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="20220012853"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="20220012854"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="20220012855"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="20220012856"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="20220012857"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="20220012858"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="20220012859"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="20220012860"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="20220012861"/>
+    <x v="2"/>
+    <x v="11"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="20220012862"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012863"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012864"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012865"/>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012866"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012867"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012868"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012869"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="20220012870"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012871"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012872"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012873"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012874"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012875"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012876"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012877"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012878"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012879"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="20220012880"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012881"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="AA"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012882"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012883"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012884"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012885"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012886"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012887"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012888"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012889"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012890"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012891"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012892"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012893"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012894"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012895"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012896"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012897"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="20220012898"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012899"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012900"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012901"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012902"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012903"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012904"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012905"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012906"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="BB"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012907"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012908"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012909"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012910"/>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="20220012911"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="CC"/>
+    <m/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="20220012912"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="20220012913"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012914"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012915"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012916"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012917"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012918"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="20220012919"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012920"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012921"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012922"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012923"/>
+    <x v="1"/>
+    <x v="15"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012924"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="20220012925"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="YY"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{186E06EA-C837-403B-8EB8-DC6BC5509551}" name="Kontingenční tabulka3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="35">
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="118">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="299"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="275"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="283"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="279"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i r="1">
+      <x v="289"/>
+    </i>
+    <i r="1">
+      <x v="294"/>
+    </i>
+    <i r="1">
+      <x v="300"/>
+    </i>
+    <i r="1">
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="292"/>
+    </i>
+    <i r="1">
+      <x v="297"/>
+    </i>
+    <i r="1">
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="284"/>
+    </i>
+    <i r="1">
+      <x v="298"/>
+    </i>
+    <i r="1">
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="288"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i r="1">
+      <x v="277"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="284"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i r="1">
+      <x v="287"/>
+    </i>
+    <i r="1">
+      <x v="288"/>
+    </i>
+    <i r="1">
+      <x v="293"/>
+    </i>
+    <i r="1">
+      <x v="295"/>
+    </i>
+    <i r="1">
+      <x v="296"/>
+    </i>
+    <i r="1">
+      <x v="300"/>
+    </i>
+    <i r="1">
+      <x v="304"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i r="1">
+      <x v="290"/>
+    </i>
+    <i r="1">
+      <x v="292"/>
+    </i>
+    <i r="1">
+      <x v="304"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="292"/>
+    </i>
+    <i r="1">
+      <x v="293"/>
+    </i>
+    <i r="1">
+      <x v="294"/>
+    </i>
+    <i r="1">
+      <x v="295"/>
+    </i>
+    <i r="1">
+      <x v="296"/>
+    </i>
+    <i r="1">
+      <x v="297"/>
+    </i>
+    <i r="1">
+      <x v="298"/>
+    </i>
+    <i r="1">
+      <x v="299"/>
+    </i>
+    <i r="1">
+      <x v="300"/>
+    </i>
+    <i r="1">
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="283"/>
+    </i>
+    <i r="1">
+      <x v="284"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i r="1">
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="277"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="283"/>
+    </i>
+    <i r="1">
+      <x v="284"/>
+    </i>
+    <i r="1">
+      <x v="304"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i r="1">
+      <x v="288"/>
+    </i>
+    <i r="1">
+      <x v="301"/>
+    </i>
+    <i r="1">
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i r="1">
+      <x v="292"/>
+    </i>
+    <i r="1">
+      <x v="293"/>
+    </i>
+    <i r="1">
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="290"/>
+    </i>
+    <i r="1">
+      <x v="296"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="288"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i r="1">
+      <x v="291"/>
+    </i>
+    <i r="1">
+      <x v="296"/>
+    </i>
+    <i r="1">
+      <x v="300"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Součet z počet karet" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB041D02-591F-411C-97E7-89550C00A3D3}" name="Tabulka1" displayName="Tabulka1" ref="B2:G35" totalsRowCount="1">
-  <autoFilter ref="B2:G34" xr:uid="{CB041D02-591F-411C-97E7-89550C00A3D3}"/>
+  <autoFilter ref="B2:G34" xr:uid="{CB041D02-591F-411C-97E7-89550C00A3D3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="P081"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
     <sortCondition descending="1" ref="E2:E34"/>
   </sortState>
@@ -719,8 +5150,8 @@
     <tableColumn id="1" xr3:uid="{A16F3B42-8CDE-4504-AB77-68ABD869DCAD}" name="ID prodejce"/>
     <tableColumn id="2" xr3:uid="{B27B29EF-661B-4C21-ACF6-4DD25767A586}" name="Obchodník"/>
     <tableColumn id="3" xr3:uid="{231D928D-7D1C-49E0-882F-2C40FD57A999}" name="Region"/>
-    <tableColumn id="4" xr3:uid="{296494ED-32F6-4C91-8FC5-AB3146BDF37A}" name="Nástup" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7DA6786B-F01A-4632-B39B-24A16F399E6A}" name="Typ obchodníka" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{296494ED-32F6-4C91-8FC5-AB3146BDF37A}" name="Nástup" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7DA6786B-F01A-4632-B39B-24A16F399E6A}" name="Typ obchodníka" dataDxfId="4">
       <calculatedColumnFormula>IF(DATEDIF(E3,DATE(2025,10,1),"d")&gt;=365,"Zkušený","Nováček")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7CC143C7-EF26-4826-A6DA-2360E6AE7E3A}" name="plán" totalsRowFunction="custom">
@@ -732,8 +5163,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C38E241-2529-4424-98A5-2DD2DDB86272}" name="Tabulka2" displayName="Tabulka2" ref="B2:F360" totalsRowShown="0">
-  <autoFilter ref="B2:F360" xr:uid="{5C38E241-2529-4424-98A5-2DD2DDB86272}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C38E241-2529-4424-98A5-2DD2DDB86272}" name="Tabulka2" displayName="Tabulka2" ref="B2:G360" totalsRowShown="0">
+  <autoFilter ref="B2:G360" xr:uid="{5C38E241-2529-4424-98A5-2DD2DDB86272}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2025" month="10" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="karta"/>
@@ -745,12 +5181,13 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19822013-4A5A-4A0D-8538-4C62CF0CB51F}" name="Datum" dataDxfId="6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{19822013-4A5A-4A0D-8538-4C62CF0CB51F}" name="Datum" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{9D850528-856D-4692-98C7-79C12CDA574F}" name="ID prodeje"/>
     <tableColumn id="3" xr3:uid="{5A283CCC-40E1-4BE9-971F-A5B022A2B3A3}" name="Skupina produktů"/>
     <tableColumn id="4" xr3:uid="{0D5B6B81-D347-40C4-A609-7DB671D9387A}" name="ID prodejce"/>
     <tableColumn id="5" xr3:uid="{74361014-A3EF-4939-BFE7-294A796CB1AE}" name="Pro jakou banku prodáno"/>
+    <tableColumn id="6" xr3:uid="{7FAA6BA8-02CB-49C4-9123-2757B4CD5C7F}" name="počet karet"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1058,8 +5495,8 @@
   </sheetPr>
   <dimension ref="A20:A28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,11 +5544,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82C75A2-60A1-4FF6-93CD-977DC54C7B60}">
-  <dimension ref="B2:J36"/>
+  <dimension ref="B2:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,9 +5560,10 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -1145,7 +5583,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +5597,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1200,8 +5638,14 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1221,8 +5665,14 @@
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +5693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1264,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1284,8 +5734,11 @@
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -1327,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -1348,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -1369,7 +5822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -1411,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +5885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +5906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +5927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +5948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1516,7 +5969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +5990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +6011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +6053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +6074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -1642,7 +6095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +6137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>56</v>
       </c>
@@ -1705,7 +6158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +6179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +6200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +6242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -1810,9 +6263,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
       <c r="G35">
         <f>SUM(G4:G34)</f>
         <v>102</v>
@@ -1820,9 +6272,111 @@
       <c r="H35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G36" s="2" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" t="s">
+        <v>106</v>
+      </c>
+      <c r="U41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" t="s">
+        <v>105</v>
+      </c>
+      <c r="R42" t="s">
+        <v>107</v>
+      </c>
+      <c r="U42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="R43" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="O44">
+        <v>26</v>
+      </c>
+      <c r="R44">
+        <v>28</v>
+      </c>
+      <c r="U44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" t="s">
+        <v>104</v>
+      </c>
+      <c r="R45" t="s">
+        <v>104</v>
+      </c>
+      <c r="U45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>18</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>27</v>
+      </c>
+      <c r="R46">
+        <v>12</v>
+      </c>
+      <c r="U46">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1831,10 +6385,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1844,11 +6398,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD97A149-1B6E-4CD4-A18F-F1757DB451E1}">
-  <dimension ref="B2:F360"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3EE752-CA5E-4F72-B19D-CCBD12967F23}">
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F357"/>
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4">
+        <f>F4+F5+F7+F14+F18+F12</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5">
+        <f>F8+F11+F13</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6">
+        <f>F6+F20+F19</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7">
+        <f>F16+F17+F15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8">
+        <f>F10+F9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="E14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="10">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="E23" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="7">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD97A149-1B6E-4CD4-A18F-F1757DB451E1}">
+  <dimension ref="B2:G360"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +7502,7 @@
     <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1876,8 +7518,11 @@
       <c r="F2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45930</v>
       </c>
@@ -1894,7 +7539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>45930</v>
       </c>
@@ -1911,7 +7556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45930</v>
       </c>
@@ -1928,7 +7573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45930</v>
       </c>
@@ -1945,7 +7590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45931</v>
       </c>
@@ -1961,8 +7606,11 @@
       <c r="F7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45931</v>
       </c>
@@ -1979,7 +7627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45932</v>
       </c>
@@ -1995,8 +7643,11 @@
       <c r="F9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45963</v>
       </c>
@@ -2013,7 +7664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45932</v>
       </c>
@@ -2029,8 +7680,11 @@
       <c r="F11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45932</v>
       </c>
@@ -2046,8 +7700,11 @@
       <c r="F12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>45932</v>
       </c>
@@ -2063,8 +7720,11 @@
       <c r="F13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45932</v>
       </c>
@@ -2080,8 +7740,11 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45932</v>
       </c>
@@ -2098,7 +7761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45932</v>
       </c>
@@ -2115,7 +7778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45932</v>
       </c>
@@ -2132,7 +7795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45932</v>
       </c>
@@ -2149,7 +7812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45932</v>
       </c>
@@ -2166,7 +7829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45963</v>
       </c>
@@ -2183,7 +7846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45932</v>
       </c>
@@ -2200,7 +7863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45963</v>
       </c>
@@ -2217,7 +7880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45932</v>
       </c>
@@ -2234,7 +7897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45932</v>
       </c>
@@ -2251,7 +7914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45963</v>
       </c>
@@ -2268,7 +7931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45932</v>
       </c>
@@ -2285,7 +7948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>45932</v>
       </c>
@@ -2302,7 +7965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45932</v>
       </c>
@@ -2319,7 +7982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45932</v>
       </c>
@@ -2336,7 +7999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>45964</v>
       </c>
@@ -2353,7 +8016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>45933</v>
       </c>
@@ -2369,8 +8032,11 @@
       <c r="F31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45933</v>
       </c>
@@ -2387,7 +8053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>45933</v>
       </c>
@@ -2404,7 +8070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>45933</v>
       </c>
@@ -2420,8 +8086,11 @@
       <c r="F34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>45934</v>
       </c>
@@ -2437,8 +8106,11 @@
       <c r="F35" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>45934</v>
       </c>
@@ -2454,8 +8126,11 @@
       <c r="F36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>45934</v>
       </c>
@@ -2471,8 +8146,11 @@
       <c r="F37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>45934</v>
       </c>
@@ -2489,7 +8167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>45934</v>
       </c>
@@ -2506,7 +8184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>45934</v>
       </c>
@@ -2523,7 +8201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>45934</v>
       </c>
@@ -2540,7 +8218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>45934</v>
       </c>
@@ -2557,7 +8235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>45934</v>
       </c>
@@ -2574,7 +8252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>45934</v>
       </c>
@@ -2591,7 +8269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>45934</v>
       </c>
@@ -2608,7 +8286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>45934</v>
       </c>
@@ -2625,7 +8303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>45934</v>
       </c>
@@ -2642,7 +8320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45934</v>
       </c>
@@ -2659,7 +8337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>45934</v>
       </c>
@@ -2676,7 +8354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45934</v>
       </c>
@@ -2692,8 +8370,11 @@
       <c r="F50" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>45934</v>
       </c>
@@ -2710,7 +8391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>45934</v>
       </c>
@@ -2727,7 +8408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>45934</v>
       </c>
@@ -2744,7 +8425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>45934</v>
       </c>
@@ -2761,7 +8442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>45934</v>
       </c>
@@ -2778,7 +8459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>45934</v>
       </c>
@@ -2795,7 +8476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>45934</v>
       </c>
@@ -2812,7 +8493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>45934</v>
       </c>
@@ -2829,7 +8510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>45934</v>
       </c>
@@ -2846,7 +8527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>45934</v>
       </c>
@@ -2863,7 +8544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45934</v>
       </c>
@@ -2880,7 +8561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45934</v>
       </c>
@@ -2897,7 +8578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45934</v>
       </c>
@@ -2913,8 +8594,11 @@
       <c r="F63" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45934</v>
       </c>
@@ -2930,8 +8614,11 @@
       <c r="F64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45934</v>
       </c>
@@ -2947,8 +8634,11 @@
       <c r="F65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45934</v>
       </c>
@@ -2965,7 +8655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45934</v>
       </c>
@@ -2982,7 +8672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45934</v>
       </c>
@@ -2999,7 +8689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45934</v>
       </c>
@@ -3016,7 +8706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45934</v>
       </c>
@@ -3033,7 +8723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45935</v>
       </c>
@@ -3050,7 +8740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45936</v>
       </c>
@@ -3067,7 +8757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45936</v>
       </c>
@@ -3083,8 +8773,11 @@
       <c r="F73" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45936</v>
       </c>
@@ -3101,7 +8794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45936</v>
       </c>
@@ -3118,7 +8811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45936</v>
       </c>
@@ -3135,7 +8828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45936</v>
       </c>
@@ -3152,7 +8845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45936</v>
       </c>
@@ -3169,7 +8862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45936</v>
       </c>
@@ -3186,7 +8879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45936</v>
       </c>
@@ -3203,7 +8896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>45936</v>
       </c>
@@ -3219,8 +8912,11 @@
       <c r="F81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>45936</v>
       </c>
@@ -3236,8 +8932,11 @@
       <c r="F82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>45936</v>
       </c>
@@ -3254,7 +8953,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>45936</v>
       </c>
@@ -3271,7 +8970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>45936</v>
       </c>
@@ -3288,7 +8987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>45936</v>
       </c>
@@ -3305,7 +9004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>45936</v>
       </c>
@@ -3322,7 +9021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>45936</v>
       </c>
@@ -3339,7 +9038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>45936</v>
       </c>
@@ -3356,7 +9055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>45936</v>
       </c>
@@ -3373,7 +9072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>45936</v>
       </c>
@@ -3390,7 +9089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>45936</v>
       </c>
@@ -3407,7 +9106,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>45936</v>
       </c>
@@ -3423,8 +9122,11 @@
       <c r="F93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>45936</v>
       </c>
@@ -3440,8 +9142,11 @@
       <c r="F94" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>45936</v>
       </c>
@@ -3458,7 +9163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>45936</v>
       </c>
@@ -3475,7 +9180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>45936</v>
       </c>
@@ -3492,7 +9197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>45936</v>
       </c>
@@ -3509,7 +9214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>45936</v>
       </c>
@@ -3526,7 +9231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>45936</v>
       </c>
@@ -3543,7 +9248,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>45937</v>
       </c>
@@ -3559,8 +9264,11 @@
       <c r="F101" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>45937</v>
       </c>
@@ -3577,7 +9285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>45937</v>
       </c>
@@ -3594,7 +9302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>45937</v>
       </c>
@@ -3611,7 +9319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>45937</v>
       </c>
@@ -3628,7 +9336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>45937</v>
       </c>
@@ -3644,8 +9352,11 @@
       <c r="F106" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>45937</v>
       </c>
@@ -3662,7 +9373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>45937</v>
       </c>
@@ -3679,7 +9390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>45937</v>
       </c>
@@ -3696,7 +9407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>45937</v>
       </c>
@@ -3713,7 +9424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>45937</v>
       </c>
@@ -3730,7 +9441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>45937</v>
       </c>
@@ -3747,7 +9458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>45937</v>
       </c>
@@ -3763,8 +9474,11 @@
       <c r="F113" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>45937</v>
       </c>
@@ -3781,7 +9495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>45937</v>
       </c>
@@ -3798,7 +9512,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>45937</v>
       </c>
@@ -3815,7 +9529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>45938</v>
       </c>
@@ -3831,8 +9545,11 @@
       <c r="F117" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>45938</v>
       </c>
@@ -3848,8 +9565,11 @@
       <c r="F118" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>45938</v>
       </c>
@@ -3865,8 +9585,11 @@
       <c r="F119" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>45938</v>
       </c>
@@ -3882,8 +9605,11 @@
       <c r="F120" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>45938</v>
       </c>
@@ -3899,8 +9625,11 @@
       <c r="F121" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>45938</v>
       </c>
@@ -3917,7 +9646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>45938</v>
       </c>
@@ -3934,7 +9663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>45938</v>
       </c>
@@ -3951,7 +9680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>45938</v>
       </c>
@@ -3968,7 +9697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>45938</v>
       </c>
@@ -3985,7 +9714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>45938</v>
       </c>
@@ -4002,7 +9731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>45938</v>
       </c>
@@ -4019,7 +9748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>45938</v>
       </c>
@@ -4036,7 +9765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>45938</v>
       </c>
@@ -4053,7 +9782,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>45938</v>
       </c>
@@ -4070,7 +9799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>45938</v>
       </c>
@@ -4087,7 +9816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>45938</v>
       </c>
@@ -4104,7 +9833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>45938</v>
       </c>
@@ -4121,7 +9850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>45938</v>
       </c>
@@ -4138,7 +9867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>45938</v>
       </c>
@@ -4155,7 +9884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>45938</v>
       </c>
@@ -4172,7 +9901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>45938</v>
       </c>
@@ -4189,7 +9918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>45938</v>
       </c>
@@ -4206,7 +9935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>45938</v>
       </c>
@@ -4223,7 +9952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>45938</v>
       </c>
@@ -4240,7 +9969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>45938</v>
       </c>
@@ -4256,8 +9985,11 @@
       <c r="F142" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>45938</v>
       </c>
@@ -4274,7 +10006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>45938</v>
       </c>
@@ -4563,7 +10295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>45938</v>
       </c>
@@ -4580,7 +10312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>45938</v>
       </c>
@@ -4597,7 +10329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>45938</v>
       </c>
@@ -4614,7 +10346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>45938</v>
       </c>
@@ -4631,7 +10363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>45938</v>
       </c>
@@ -4648,7 +10380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>45938</v>
       </c>
@@ -4665,7 +10397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>45938</v>
       </c>
@@ -4682,7 +10414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>45938</v>
       </c>
@@ -4699,7 +10431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>45938</v>
       </c>
@@ -4716,7 +10448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>45938</v>
       </c>
@@ -4732,8 +10464,11 @@
       <c r="F170" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>45938</v>
       </c>
@@ -4749,8 +10484,11 @@
       <c r="F171" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>45938</v>
       </c>
@@ -4766,8 +10504,11 @@
       <c r="F172" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>45938</v>
       </c>
@@ -4783,8 +10524,11 @@
       <c r="F173" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>45938</v>
       </c>
@@ -4800,8 +10544,11 @@
       <c r="F174" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>45938</v>
       </c>
@@ -4818,7 +10565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>45938</v>
       </c>
@@ -4835,7 +10582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>45938</v>
       </c>
@@ -4852,7 +10599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>45938</v>
       </c>
@@ -4869,7 +10616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>45938</v>
       </c>
@@ -4886,7 +10633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>45938</v>
       </c>
@@ -4903,7 +10650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>45938</v>
       </c>
@@ -4920,7 +10667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>45938</v>
       </c>
@@ -4937,7 +10684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>45938</v>
       </c>
@@ -4954,7 +10701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>45938</v>
       </c>
@@ -4971,7 +10718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>45938</v>
       </c>
@@ -4988,7 +10735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>45938</v>
       </c>
@@ -5005,7 +10752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>45939</v>
       </c>
@@ -5021,8 +10768,11 @@
       <c r="F187" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>45939</v>
       </c>
@@ -5039,7 +10789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>45939</v>
       </c>
@@ -5056,7 +10806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>45939</v>
       </c>
@@ -5072,8 +10822,11 @@
       <c r="F190" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>45939</v>
       </c>
@@ -5090,7 +10843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>45940</v>
       </c>
@@ -5107,7 +10860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>45940</v>
       </c>
@@ -5123,8 +10876,11 @@
       <c r="F193" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>45940</v>
       </c>
@@ -5141,7 +10897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>45940</v>
       </c>
@@ -5158,7 +10914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>45940</v>
       </c>
@@ -5175,7 +10931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>45940</v>
       </c>
@@ -5192,7 +10948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>45940</v>
       </c>
@@ -5209,7 +10965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>45940</v>
       </c>
@@ -5225,8 +10981,11 @@
       <c r="F199" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>45940</v>
       </c>
@@ -5242,8 +11001,11 @@
       <c r="F200" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>45940</v>
       </c>
@@ -5260,7 +11022,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>45942</v>
       </c>
@@ -5276,8 +11038,11 @@
       <c r="F202" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>45942</v>
       </c>
@@ -5294,7 +11059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>45942</v>
       </c>
@@ -5310,8 +11075,11 @@
       <c r="F204" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>45942</v>
       </c>
@@ -5327,8 +11095,11 @@
       <c r="F205" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>45942</v>
       </c>
@@ -5344,8 +11115,11 @@
       <c r="F206" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>45942</v>
       </c>
@@ -5362,7 +11136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>45942</v>
       </c>
@@ -5379,7 +11153,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>45942</v>
       </c>
@@ -5396,7 +11170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>45942</v>
       </c>
@@ -5413,7 +11187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>45942</v>
       </c>
@@ -5430,7 +11204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>45943</v>
       </c>
@@ -5446,8 +11220,11 @@
       <c r="F212" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="213" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>45943</v>
       </c>
@@ -5464,7 +11241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>45944</v>
       </c>
@@ -5480,8 +11257,11 @@
       <c r="F214" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>45944</v>
       </c>
@@ -5497,8 +11277,11 @@
       <c r="F215" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>45944</v>
       </c>
@@ -5514,8 +11297,11 @@
       <c r="F216" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="217" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>45944</v>
       </c>
@@ -5532,7 +11318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>45944</v>
       </c>
@@ -5548,8 +11334,11 @@
       <c r="F218" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>45944</v>
       </c>
@@ -5566,7 +11355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>45944</v>
       </c>
@@ -5583,7 +11372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>45944</v>
       </c>
@@ -5600,7 +11389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>45944</v>
       </c>
@@ -5617,7 +11406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>45944</v>
       </c>
@@ -5634,7 +11423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>45945</v>
       </c>
@@ -5650,8 +11439,11 @@
       <c r="F224" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>45945</v>
       </c>
@@ -5668,7 +11460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>45946</v>
       </c>
@@ -5684,8 +11476,11 @@
       <c r="F226" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>45946</v>
       </c>
@@ -5701,8 +11496,11 @@
       <c r="F227" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>45946</v>
       </c>
@@ -5719,7 +11517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>45946</v>
       </c>
@@ -5736,7 +11534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>45947</v>
       </c>
@@ -5752,8 +11550,11 @@
       <c r="F230" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>45947</v>
       </c>
@@ -5770,7 +11571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>45948</v>
       </c>
@@ -5786,8 +11587,11 @@
       <c r="F232" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>45948</v>
       </c>
@@ -5804,7 +11608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>45948</v>
       </c>
@@ -5820,8 +11624,11 @@
       <c r="F234" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>45948</v>
       </c>
@@ -5838,7 +11645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>45948</v>
       </c>
@@ -5855,7 +11662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>45948</v>
       </c>
@@ -5871,8 +11678,11 @@
       <c r="F237" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>45948</v>
       </c>
@@ -5889,7 +11699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>45948</v>
       </c>
@@ -5906,7 +11716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>45948</v>
       </c>
@@ -5923,7 +11733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>45948</v>
       </c>
@@ -5940,7 +11750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>45948</v>
       </c>
@@ -5957,7 +11767,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="243" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>45948</v>
       </c>
@@ -5974,7 +11784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>45948</v>
       </c>
@@ -5991,7 +11801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>45948</v>
       </c>
@@ -6008,7 +11818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>45949</v>
       </c>
@@ -6024,8 +11834,11 @@
       <c r="F246" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>45949</v>
       </c>
@@ -6041,8 +11854,11 @@
       <c r="F247" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>45949</v>
       </c>
@@ -6059,7 +11875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>45949</v>
       </c>
@@ -6076,7 +11892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>45949</v>
       </c>
@@ -6093,7 +11909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>45949</v>
       </c>
@@ -6110,7 +11926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>45949</v>
       </c>
@@ -6127,7 +11943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="253" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>45949</v>
       </c>
@@ -6144,7 +11960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>45949</v>
       </c>
@@ -6161,7 +11977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>45950</v>
       </c>
@@ -6177,8 +11993,11 @@
       <c r="F255" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>45950</v>
       </c>
@@ -6194,8 +12013,11 @@
       <c r="F256" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="257" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>45950</v>
       </c>
@@ -6212,7 +12034,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>45950</v>
       </c>
@@ -6229,7 +12051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>45950</v>
       </c>
@@ -6245,8 +12067,11 @@
       <c r="F259" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>45950</v>
       </c>
@@ -6262,8 +12087,11 @@
       <c r="F260" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="261" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>45950</v>
       </c>
@@ -6280,7 +12108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>45950</v>
       </c>
@@ -6297,7 +12125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>45951</v>
       </c>
@@ -6314,7 +12142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>45951</v>
       </c>
@@ -6331,7 +12159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>45951</v>
       </c>
@@ -6348,7 +12176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="266" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>45951</v>
       </c>
@@ -6365,7 +12193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>45951</v>
       </c>
@@ -6382,7 +12210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>45951</v>
       </c>
@@ -6399,7 +12227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>45951</v>
       </c>
@@ -6416,7 +12244,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>45951</v>
       </c>
@@ -6433,7 +12261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>45952</v>
       </c>
@@ -6449,8 +12277,11 @@
       <c r="F271" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>45952</v>
       </c>
@@ -6466,8 +12297,11 @@
       <c r="F272" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>45952</v>
       </c>
@@ -6483,8 +12317,11 @@
       <c r="F273" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="274" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>45952</v>
       </c>
@@ -6501,7 +12338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="275" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>45952</v>
       </c>
@@ -6518,7 +12355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>45952</v>
       </c>
@@ -6535,7 +12372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>45952</v>
       </c>
@@ -6552,7 +12389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="278" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>45952</v>
       </c>
@@ -6569,7 +12406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>45952</v>
       </c>
@@ -6586,7 +12423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>45952</v>
       </c>
@@ -6603,7 +12440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="281" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>45952</v>
       </c>
@@ -6620,7 +12457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>45952</v>
       </c>
@@ -6636,8 +12473,11 @@
       <c r="F282" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>45952</v>
       </c>
@@ -6653,8 +12493,11 @@
       <c r="F283" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>45952</v>
       </c>
@@ -6670,8 +12513,11 @@
       <c r="F284" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>45952</v>
       </c>
@@ -6687,8 +12533,11 @@
       <c r="F285" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>45953</v>
       </c>
@@ -6704,8 +12553,11 @@
       <c r="F286" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="287" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>45953</v>
       </c>
@@ -6722,7 +12574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>45953</v>
       </c>
@@ -6738,8 +12590,11 @@
       <c r="F288" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>45953</v>
       </c>
@@ -6756,7 +12611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>45954</v>
       </c>
@@ -6772,8 +12627,11 @@
       <c r="F290" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>45954</v>
       </c>
@@ -6790,7 +12648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>45954</v>
       </c>
@@ -6807,7 +12665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="293" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>45954</v>
       </c>
@@ -6824,7 +12682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="294" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>45955</v>
       </c>
@@ -6841,7 +12699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>45955</v>
       </c>
@@ -6858,7 +12716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>45955</v>
       </c>
@@ -6875,7 +12733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>45955</v>
       </c>
@@ -6892,7 +12750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="298" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>45956</v>
       </c>
@@ -6909,7 +12767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>45956</v>
       </c>
@@ -6926,7 +12784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="300" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>45956</v>
       </c>
@@ -6943,7 +12801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>45956</v>
       </c>
@@ -6960,7 +12818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>45956</v>
       </c>
@@ -6977,7 +12835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>45956</v>
       </c>
@@ -6994,7 +12852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="304" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>45956</v>
       </c>
@@ -7011,7 +12869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>45956</v>
       </c>
@@ -7028,7 +12886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="306" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>45957</v>
       </c>
@@ -7045,7 +12903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>45957</v>
       </c>
@@ -7062,7 +12920,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>45957</v>
       </c>
@@ -7079,7 +12937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>45957</v>
       </c>
@@ -7096,7 +12954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>45957</v>
       </c>
@@ -7112,8 +12970,11 @@
       <c r="F310" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>45957</v>
       </c>
@@ -7129,8 +12990,11 @@
       <c r="F311" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>45957</v>
       </c>
@@ -7147,7 +13011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>45957</v>
       </c>
@@ -7164,7 +13028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>45957</v>
       </c>
@@ -7181,7 +13045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>45957</v>
       </c>
@@ -7198,7 +13062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="316" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>45958</v>
       </c>
@@ -7215,7 +13079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>45958</v>
       </c>
@@ -7231,8 +13095,11 @@
       <c r="F317" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>45958</v>
       </c>
@@ -7248,8 +13115,11 @@
       <c r="F318" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>45958</v>
       </c>
@@ -7265,8 +13135,11 @@
       <c r="F319" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="320" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>45958</v>
       </c>
@@ -7283,7 +13156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="321" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>45958</v>
       </c>
@@ -7300,7 +13173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>45958</v>
       </c>
@@ -7317,7 +13190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>45958</v>
       </c>
@@ -7334,7 +13207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>45958</v>
       </c>
@@ -7350,8 +13223,11 @@
       <c r="F324" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>45958</v>
       </c>
@@ -7367,8 +13243,11 @@
       <c r="F325" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="326" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>45958</v>
       </c>
@@ -7385,7 +13264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>45958</v>
       </c>
@@ -7402,7 +13281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>45958</v>
       </c>
@@ -7418,8 +13297,11 @@
       <c r="F328" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>45958</v>
       </c>
@@ -7436,7 +13318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>45958</v>
       </c>
@@ -7453,7 +13335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="331" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>45958</v>
       </c>
@@ -7470,7 +13352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>45958</v>
       </c>
@@ -7486,8 +13368,11 @@
       <c r="F332" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="333" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>45958</v>
       </c>
@@ -7504,7 +13389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>45960</v>
       </c>
@@ -7520,8 +13405,11 @@
       <c r="F334" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>45960</v>
       </c>
@@ -7537,8 +13425,11 @@
       <c r="F335" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="336" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>45960</v>
       </c>
@@ -7555,7 +13446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="337" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>45960</v>
       </c>
@@ -7572,7 +13463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="338" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>45960</v>
       </c>
@@ -7589,7 +13480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>45960</v>
       </c>
@@ -7605,8 +13496,11 @@
       <c r="F339" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>45960</v>
       </c>
@@ -7622,8 +13516,11 @@
       <c r="F340" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="341" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>45960</v>
       </c>
@@ -7640,7 +13537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>45960</v>
       </c>
@@ -7656,8 +13553,11 @@
       <c r="F342" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="343" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>45960</v>
       </c>
@@ -7674,7 +13574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>45960</v>
       </c>
@@ -7690,8 +13590,11 @@
       <c r="F344" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="345" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>45960</v>
       </c>
@@ -7708,7 +13611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="346" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>45960</v>
       </c>
@@ -7725,7 +13628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>45925</v>
       </c>
@@ -7742,7 +13645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="348" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>45925</v>
       </c>
@@ -7759,7 +13662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>45928</v>
       </c>
@@ -7776,7 +13679,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>45928</v>
       </c>
@@ -7793,7 +13696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>45928</v>
       </c>
@@ -7810,7 +13713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="352" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>45928</v>
       </c>
@@ -7861,7 +13764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>45929</v>
       </c>
@@ -7878,7 +13781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>45929</v>
       </c>
@@ -7895,7 +13798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>45929</v>
       </c>
